--- a/OrangeHRMWebApplication/artifact/script/OHRM_01_signup.xlsx
+++ b/OrangeHRMWebApplication/artifact/script/OHRM_01_signup.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="614">
   <si>
     <t>target</t>
   </si>
@@ -1886,15 +1886,6 @@
   </si>
   <si>
     <t>${btn.checkbox.loc}</t>
-  </si>
-  <si>
-    <t>NotARobot</t>
-  </si>
-  <si>
-    <t>Click not a robot captcha</t>
-  </si>
-  <si>
-    <t>${btn.robot.checkbox.loc}</t>
   </si>
   <si>
     <t>submit</t>
@@ -1911,10 +1902,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1987,7 +1978,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1995,7 +1986,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2003,89 +1994,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2102,14 +2010,97 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2136,13 +2127,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2154,85 +2163,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2244,37 +2175,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2292,13 +2193,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2310,13 +2307,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2362,24 +2353,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2423,11 +2401,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2449,18 +2442,16 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2478,126 +2469,126 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5058,12 +5049,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O1011"/>
+  <dimension ref="A1:O1010"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -5758,21 +5749,11 @@
       <c r="O24" s="21"/>
     </row>
     <row r="25" ht="23" customHeight="1" spans="1:15">
-      <c r="A25" s="18" t="s">
-        <v>614</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>615</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>616</v>
-      </c>
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
@@ -5990,7 +5971,7 @@
     </row>
     <row r="38" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
+      <c r="B38" s="27"/>
       <c r="C38" s="24"/>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
@@ -6007,7 +5988,7 @@
     </row>
     <row r="39" ht="23" customHeight="1" spans="1:15">
       <c r="A39" s="18"/>
-      <c r="B39" s="27"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="24"/>
       <c r="D39" s="25"/>
       <c r="E39" s="25"/>
@@ -7229,7 +7210,7 @@
       <c r="N110" s="22"/>
       <c r="O110" s="21"/>
     </row>
-    <row r="111" ht="23" customHeight="1" spans="1:15">
+    <row r="111" ht="19" customHeight="1" spans="1:15">
       <c r="A111" s="18"/>
       <c r="B111" s="19"/>
       <c r="C111" s="24"/>
@@ -16545,23 +16526,7 @@
       <c r="N658" s="22"/>
       <c r="O658" s="21"/>
     </row>
-    <row r="659" ht="19" customHeight="1" spans="1:15">
-      <c r="A659" s="18"/>
-      <c r="B659" s="19"/>
-      <c r="C659" s="24"/>
-      <c r="D659" s="25"/>
-      <c r="E659" s="25"/>
-      <c r="F659" s="25"/>
-      <c r="G659" s="25"/>
-      <c r="H659" s="25"/>
-      <c r="I659" s="25"/>
-      <c r="J659" s="35"/>
-      <c r="K659" s="21"/>
-      <c r="L659" s="22"/>
-      <c r="M659" s="20"/>
-      <c r="N659" s="22"/>
-      <c r="O659" s="21"/>
-    </row>
+    <row r="659" ht="19" customHeight="1"/>
     <row r="660" ht="19" customHeight="1"/>
     <row r="661" ht="19" customHeight="1"/>
     <row r="662" ht="19" customHeight="1"/>
@@ -16913,7 +16878,6 @@
     <row r="1008" ht="19" customHeight="1"/>
     <row r="1009" ht="19" customHeight="1"/>
     <row r="1010" ht="19" customHeight="1"/>
-    <row r="1011" ht="19" customHeight="1"/>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
@@ -17044,10 +17008,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D5:D8 D23:D709">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D5:D8 D24:D708">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C5:C8 C23:C711">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C5:C8 C24:C710">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
